--- a/ProP/Data/Cube_data.xlsx
+++ b/ProP/Data/Cube_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beard\Desktop\Python Programs\Class Project\Projectile_Prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beard\Desktop\Python Programs\Class Project\Projectile_Prediction\ProP\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FA87E7-FC5C-481D-9F72-FBEAC90E846D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16291718-63BE-4713-8B2C-4E140125618F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14160" xr2:uid="{7B512D39-7C0B-4639-A4ED-54B7F643E4BC}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>Distance to Target</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Velocity Recorded</t>
+  </si>
+  <si>
+    <t>Coin</t>
   </si>
 </sst>
 </file>
@@ -98,7 +101,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -140,26 +146,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D6BAFBE7-BDED-4A9E-982F-4F61FE03EFDF}" name="Table1" displayName="Table1" ref="A1:H121" totalsRowShown="0">
-  <autoFilter ref="A1:H121" xr:uid="{867335CA-0F7E-4F6F-AF74-7E4BF4706EA4}"/>
-  <tableColumns count="8">
-    <tableColumn id="11" xr3:uid="{19F38E76-A149-43BB-984C-067C887087A8}" name="Velocity Recorded" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D6BAFBE7-BDED-4A9E-982F-4F61FE03EFDF}" name="Table1" displayName="Table1" ref="A1:I121" totalsRowShown="0">
+  <autoFilter ref="A1:I121" xr:uid="{867335CA-0F7E-4F6F-AF74-7E4BF4706EA4}"/>
+  <tableColumns count="9">
+    <tableColumn id="11" xr3:uid="{19F38E76-A149-43BB-984C-067C887087A8}" name="Velocity Recorded" dataDxfId="9">
       <calculatedColumnFormula>Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="1" xr3:uid="{4FA734E1-CFC6-4566-9D37-F4DC6475ED8F}" name="Velocity Needed"/>
-    <tableColumn id="2" xr3:uid="{B0B297BA-EAD2-41A2-A2B8-7AC2F879B178}" name="Powder load" dataDxfId="7">
+    <tableColumn id="2" xr3:uid="{B0B297BA-EAD2-41A2-A2B8-7AC2F879B178}" name="Powder load" dataDxfId="8">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{2C98F68A-45E9-462B-BE17-2106017EB690}" name="Weight of Threat"/>
-    <tableColumn id="4" xr3:uid="{C48BA3EC-9217-4E71-B611-F38CC3F4C23B}" name="Humidity" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{C48BA3EC-9217-4E71-B611-F38CC3F4C23B}" name="Humidity" dataDxfId="7">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{15BB54DD-E055-4745-B8C6-2F14EA56794C}" name="Sabot Orientation" dataDxfId="5">
+    <tableColumn id="5" xr3:uid="{15BB54DD-E055-4745-B8C6-2F14EA56794C}" name="Sabot Orientation" dataDxfId="6">
       <calculatedColumnFormula>RANDBETWEEN(0,1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{1142B9DF-BF60-420B-AE91-0B17C33A8AE5}" name="Distance to Target"/>
-    <tableColumn id="7" xr3:uid="{852DA65A-35DF-4253-924A-448489E81C03}" name="Temperature" dataDxfId="4">
+    <tableColumn id="7" xr3:uid="{852DA65A-35DF-4253-924A-448489E81C03}" name="Temperature" dataDxfId="5">
       <calculatedColumnFormula>RANDBETWEEN(10,90)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{02D75176-554A-4B09-9032-723430BD72CC}" name="Coin" dataDxfId="0">
+      <calculatedColumnFormula>RAND()</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -171,18 +180,18 @@
   <autoFilter ref="A1:G121" xr:uid="{867335CA-0F7E-4F6F-AF74-7E4BF4706EA4}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{B05F6DA5-AFEA-42B0-951D-A9256B48450A}" name="Velocity Needed"/>
-    <tableColumn id="2" xr3:uid="{A530C670-D961-4F47-877A-E9A98983C585}" name="Powder load" dataDxfId="3">
+    <tableColumn id="2" xr3:uid="{A530C670-D961-4F47-877A-E9A98983C585}" name="Powder load" dataDxfId="4">
       <calculatedColumnFormula>IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{DAA78ABC-6EFE-4874-9EBA-87D482E8E971}" name="Weight of Threat"/>
-    <tableColumn id="4" xr3:uid="{5A96DA09-EAD3-4A2C-91DA-2C99E9198C6B}" name="Humidity" dataDxfId="2">
+    <tableColumn id="4" xr3:uid="{5A96DA09-EAD3-4A2C-91DA-2C99E9198C6B}" name="Humidity" dataDxfId="3">
       <calculatedColumnFormula>IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{55DCD633-0B39-48D5-812E-7AC119D9FFC6}" name="Sabot Orientation" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{55DCD633-0B39-48D5-812E-7AC119D9FFC6}" name="Sabot Orientation" dataDxfId="2">
       <calculatedColumnFormula>RANDBETWEEN(0,1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{6A7CA8E4-3444-4AF9-89D1-55F24B05D313}" name="Distance to Target"/>
-    <tableColumn id="7" xr3:uid="{4A3F85A5-0F92-4C9F-8B0D-AC78ADBD0177}" name="Temperature" dataDxfId="0">
+    <tableColumn id="7" xr3:uid="{4A3F85A5-0F92-4C9F-8B0D-AC78ADBD0177}" name="Temperature" dataDxfId="1">
       <calculatedColumnFormula>RANDBETWEEN(10,90)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -487,18 +496,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF8CCBF-007A-4494-8450-CF5E7BB0B3DD}">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="L128" sqref="L128"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="8" width="10.26953125" customWidth="1"/>
+    <col min="2" max="7" width="10.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -523,25 +533,28 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>4849</v>
+        <v>5072</v>
       </c>
       <c r="B2">
         <v>5000</v>
       </c>
       <c r="C2">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2555</v>
+        <v>2017</v>
       </c>
       <c r="D2">
         <v>75</v>
       </c>
       <c r="E2">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F31" ca="1" si="0">RANDBETWEEN(0,1)</f>
@@ -552,58 +565,66 @@
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H31" ca="1" si="1">RANDBETWEEN(10,90)</f>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="I2" s="1">
+        <f t="shared" ref="I2:I33" ca="1" si="2">RAND()</f>
+        <v>0.87842861028529251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5826</v>
+        <v>5973</v>
       </c>
       <c r="B3">
         <v>6000</v>
       </c>
       <c r="C3">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2271</v>
+        <v>2953</v>
       </c>
       <c r="D3">
         <v>75</v>
       </c>
       <c r="E3">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>15</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.24555867621272931</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>6860</v>
+        <v>7126</v>
       </c>
       <c r="B4">
         <v>7000</v>
       </c>
       <c r="C4">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2555</v>
+        <v>2726</v>
       </c>
       <c r="D4">
         <v>75</v>
       </c>
       <c r="E4">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
@@ -614,27 +635,31 @@
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.67876383491931847</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>4870</v>
+        <v>5028</v>
       </c>
       <c r="B5">
         <v>5000</v>
       </c>
       <c r="C5">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2313</v>
+        <v>2666</v>
       </c>
       <c r="D5">
         <v>75</v>
       </c>
       <c r="E5">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
@@ -645,89 +670,101 @@
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.44028305176202431</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5902</v>
+        <v>5805</v>
       </c>
       <c r="B6">
         <v>6000</v>
       </c>
       <c r="C6">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2710</v>
+        <v>2794</v>
       </c>
       <c r="D6">
         <v>75</v>
       </c>
       <c r="E6">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>15</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.2843783121234581</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>6806</v>
+        <v>7080</v>
       </c>
       <c r="B7">
         <v>7000</v>
       </c>
       <c r="C7">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4530</v>
+        <v>4266</v>
       </c>
       <c r="D7">
         <v>75</v>
       </c>
       <c r="E7">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>23</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.52157149425722893</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5068</v>
+        <v>4884</v>
       </c>
       <c r="B8">
         <v>5000</v>
       </c>
       <c r="C8">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4290</v>
+        <v>4680</v>
       </c>
       <c r="D8">
         <v>75</v>
       </c>
       <c r="E8">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
@@ -738,27 +775,31 @@
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.99262131693699795</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5858</v>
+        <v>6047</v>
       </c>
       <c r="B9">
         <v>6000</v>
       </c>
       <c r="C9">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>5468</v>
+        <v>4936</v>
       </c>
       <c r="D9">
         <v>75</v>
       </c>
       <c r="E9">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
@@ -769,27 +810,31 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.38705032211543344</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>6852</v>
+        <v>6836</v>
       </c>
       <c r="B10">
         <v>7000</v>
       </c>
       <c r="C10">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4806</v>
+        <v>4088</v>
       </c>
       <c r="D10">
         <v>75</v>
       </c>
       <c r="E10">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
@@ -800,27 +845,31 @@
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.518612962374844</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>4973</v>
+        <v>5014</v>
       </c>
       <c r="B11">
         <v>5000</v>
       </c>
       <c r="C11">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4249</v>
+        <v>4388</v>
       </c>
       <c r="D11">
         <v>75</v>
       </c>
       <c r="E11">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
@@ -831,120 +880,136 @@
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.76741969132949928</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5880</v>
+        <v>5955</v>
       </c>
       <c r="B12">
         <v>6000</v>
       </c>
       <c r="C12">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6026</v>
+        <v>6412</v>
       </c>
       <c r="D12">
         <v>75</v>
       </c>
       <c r="E12">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>65</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.45848713565893728</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>7160</v>
+        <v>7060</v>
       </c>
       <c r="B13">
         <v>7000</v>
       </c>
       <c r="C13">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6451</v>
+        <v>6243</v>
       </c>
       <c r="D13">
         <v>75</v>
       </c>
       <c r="E13">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>65</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.39982173903556195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>4983</v>
+        <v>5044</v>
       </c>
       <c r="B14">
         <v>5000</v>
       </c>
       <c r="C14">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>7084</v>
+        <v>6020</v>
       </c>
       <c r="D14">
         <v>75</v>
       </c>
       <c r="E14">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>65</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.6707887250063456E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5948</v>
+        <v>6117</v>
       </c>
       <c r="B15">
         <v>6000</v>
       </c>
       <c r="C15">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6648</v>
+        <v>6384</v>
       </c>
       <c r="D15">
         <v>75</v>
       </c>
       <c r="E15">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
@@ -955,89 +1020,101 @@
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.2387045116681388E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>7085</v>
+        <v>7012</v>
       </c>
       <c r="B16">
         <v>7000</v>
       </c>
       <c r="C16">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6016</v>
+        <v>6724</v>
       </c>
       <c r="D16">
         <v>75</v>
       </c>
       <c r="E16">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>65</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.51793931138169413</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5160</v>
+        <v>4834</v>
       </c>
       <c r="B17">
         <v>5000</v>
       </c>
       <c r="C17">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2838</v>
+        <v>2895</v>
       </c>
       <c r="D17">
         <v>150</v>
       </c>
       <c r="E17">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>15</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.56029836995624505</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>6017</v>
+        <v>6084</v>
       </c>
       <c r="B18">
         <v>6000</v>
       </c>
       <c r="C18">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2662</v>
+        <v>2183</v>
       </c>
       <c r="D18">
         <v>150</v>
       </c>
       <c r="E18">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="0"/>
@@ -1048,27 +1125,31 @@
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.59619215613116749</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>6921</v>
+        <v>6918</v>
       </c>
       <c r="B19">
         <v>7000</v>
       </c>
       <c r="C19">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2368</v>
+        <v>2689</v>
       </c>
       <c r="D19">
         <v>150</v>
       </c>
       <c r="E19">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="0"/>
@@ -1079,10 +1160,14 @@
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.22087541374541642</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
         <v>5064</v>
@@ -1092,76 +1177,84 @@
       </c>
       <c r="C20">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2938</v>
+        <v>2267</v>
       </c>
       <c r="D20">
         <v>150</v>
       </c>
       <c r="E20">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>15</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.19733968047141515</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>6061</v>
+        <v>6152</v>
       </c>
       <c r="B21">
         <v>6000</v>
       </c>
       <c r="C21">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2291</v>
+        <v>2150</v>
       </c>
       <c r="D21">
         <v>150</v>
       </c>
       <c r="E21">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <v>15</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.76310090711959078</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>7180</v>
+        <v>6842</v>
       </c>
       <c r="B22">
         <v>7000</v>
       </c>
       <c r="C22">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>5235</v>
+        <v>5330</v>
       </c>
       <c r="D22">
         <v>150</v>
       </c>
       <c r="E22">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="0"/>
@@ -1172,58 +1265,66 @@
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.57594635789047388</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5188</v>
+        <v>4801</v>
       </c>
       <c r="B23">
         <v>5000</v>
       </c>
       <c r="C23">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>5388</v>
+        <v>5239</v>
       </c>
       <c r="D23">
         <v>150</v>
       </c>
       <c r="E23">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>23</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.27939358489038046</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>6161</v>
+        <v>5894</v>
       </c>
       <c r="B24">
         <v>6000</v>
       </c>
       <c r="C24">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4867</v>
+        <v>4289</v>
       </c>
       <c r="D24">
         <v>150</v>
       </c>
       <c r="E24">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="0"/>
@@ -1234,58 +1335,66 @@
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.64495160469194257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>7074</v>
+        <v>6836</v>
       </c>
       <c r="B25">
         <v>7000</v>
       </c>
       <c r="C25">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>5455</v>
+        <v>4168</v>
       </c>
       <c r="D25">
         <v>150</v>
       </c>
       <c r="E25">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
         <v>23</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.53675731556464901</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5064</v>
+        <v>4947</v>
       </c>
       <c r="B26">
         <v>5000</v>
       </c>
       <c r="C26">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4334</v>
+        <v>5328</v>
       </c>
       <c r="D26">
         <v>150</v>
       </c>
       <c r="E26">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="0"/>
@@ -1296,27 +1405,31 @@
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.32618049486225276</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5950</v>
+        <v>6120</v>
       </c>
       <c r="B27">
         <v>6000</v>
       </c>
       <c r="C27">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6932</v>
+        <v>7094</v>
       </c>
       <c r="D27">
         <v>150</v>
       </c>
       <c r="E27">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="0"/>
@@ -1327,27 +1440,31 @@
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.55294529971552897</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>6955</v>
+        <v>7101</v>
       </c>
       <c r="B28">
         <v>7000</v>
       </c>
       <c r="C28">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>7301</v>
+        <v>6475</v>
       </c>
       <c r="D28">
         <v>150</v>
       </c>
       <c r="E28">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="0"/>
@@ -1358,89 +1475,101 @@
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.93370091689138068</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5137</v>
+        <v>4989</v>
       </c>
       <c r="B29">
         <v>5000</v>
       </c>
       <c r="C29">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6846</v>
+        <v>6519</v>
       </c>
       <c r="D29">
         <v>150</v>
       </c>
       <c r="E29">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <v>65</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.91037663770258215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5841</v>
+        <v>5831</v>
       </c>
       <c r="B30">
         <v>6000</v>
       </c>
       <c r="C30">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6634</v>
+        <v>6258</v>
       </c>
       <c r="D30">
         <v>150</v>
       </c>
       <c r="E30">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>65</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.76548059925593959</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>7136</v>
+      </c>
+      <c r="B31">
+        <v>7000</v>
+      </c>
+      <c r="C31">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>7043</v>
+      </c>
+      <c r="D31">
+        <v>150</v>
+      </c>
+      <c r="E31">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
         <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>6826</v>
-      </c>
-      <c r="B31">
-        <v>7000</v>
-      </c>
-      <c r="C31">
-        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6610</v>
-      </c>
-      <c r="D31">
-        <v>150</v>
-      </c>
-      <c r="E31">
-        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>1</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="0"/>
@@ -1451,2376 +1580,2684 @@
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.6546171505959143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>4833</v>
+        <v>4915</v>
       </c>
       <c r="B32">
         <v>5000</v>
       </c>
       <c r="C32" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2969</v>
+        <v>2926</v>
       </c>
       <c r="D32">
         <v>75</v>
       </c>
       <c r="E32" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" ref="F32:F47" ca="1" si="2">RANDBETWEEN(0,1)</f>
+        <f t="shared" ref="F32:F47" ca="1" si="3">RANDBETWEEN(0,1)</f>
         <v>1</v>
       </c>
       <c r="G32">
         <v>15</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" ref="H32:H47" ca="1" si="3">RANDBETWEEN(10,90)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ref="H32:H47" ca="1" si="4">RANDBETWEEN(10,90)</f>
+        <v>27</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.76627383557079776</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5816</v>
+        <v>5852</v>
       </c>
       <c r="B33">
         <v>6000</v>
       </c>
       <c r="C33" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2335</v>
+        <v>2576</v>
       </c>
       <c r="D33">
         <v>75</v>
       </c>
       <c r="E33" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="F33" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>15</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="I33" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>15</v>
-      </c>
-      <c r="H33" s="1">
+        <v>0.38035211237715227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>7000</v>
+      </c>
+      <c r="B34">
+        <v>7000</v>
+      </c>
+      <c r="C34" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>2768</v>
+      </c>
+      <c r="D34">
+        <v>75</v>
+      </c>
+      <c r="E34" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>74</v>
+      </c>
+      <c r="F34" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
-        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>6932</v>
-      </c>
-      <c r="B34">
-        <v>7000</v>
-      </c>
-      <c r="C34" s="1">
-        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2963</v>
-      </c>
-      <c r="D34">
-        <v>75</v>
-      </c>
-      <c r="E34" s="1">
-        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>10</v>
-      </c>
-      <c r="F34" s="1">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G34">
         <v>15</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" ref="I34:I65" ca="1" si="5">RAND()</f>
+        <v>0.25100722673991538</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5110</v>
+        <v>5171</v>
       </c>
       <c r="B35">
         <v>5000</v>
       </c>
       <c r="C35" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2702</v>
+        <v>2663</v>
       </c>
       <c r="D35">
         <v>75</v>
       </c>
       <c r="E35" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>15</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.95819964512609523</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5997</v>
+        <v>5890</v>
       </c>
       <c r="B36">
         <v>6000</v>
       </c>
       <c r="C36" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2632</v>
+        <v>2800</v>
       </c>
       <c r="D36">
         <v>75</v>
       </c>
       <c r="E36" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="G36">
         <v>15</v>
       </c>
       <c r="H36" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.62667723951463794</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>7065</v>
+      </c>
+      <c r="B37">
+        <v>7000</v>
+      </c>
+      <c r="C37" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>5415</v>
+      </c>
+      <c r="D37">
+        <v>75</v>
+      </c>
+      <c r="E37" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>11</v>
+      </c>
+      <c r="F37" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
-        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>6950</v>
-      </c>
-      <c r="B37">
-        <v>7000</v>
-      </c>
-      <c r="C37" s="1">
-        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>5131</v>
-      </c>
-      <c r="D37">
-        <v>75</v>
-      </c>
-      <c r="E37" s="1">
-        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>2</v>
-      </c>
-      <c r="F37" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>23</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.68530703111350577</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5042</v>
+        <v>5123</v>
       </c>
       <c r="B38">
         <v>5000</v>
       </c>
       <c r="C38" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4684</v>
+        <v>4181</v>
       </c>
       <c r="D38">
         <v>75</v>
       </c>
       <c r="E38" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>23</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.89833300157819385</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>6072</v>
+        <v>5892</v>
       </c>
       <c r="B39">
         <v>6000</v>
       </c>
       <c r="C39" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4427</v>
+        <v>4874</v>
       </c>
       <c r="D39">
         <v>75</v>
       </c>
       <c r="E39" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="G39">
         <v>23</v>
       </c>
       <c r="H39" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.19789086311056148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>7175</v>
+      </c>
+      <c r="B40">
+        <v>7000</v>
+      </c>
+      <c r="C40" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>5125</v>
+      </c>
+      <c r="D40">
+        <v>75</v>
+      </c>
+      <c r="E40" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>9</v>
+      </c>
+      <c r="F40" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
-        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>6933</v>
-      </c>
-      <c r="B40">
-        <v>7000</v>
-      </c>
-      <c r="C40" s="1">
-        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4977</v>
-      </c>
-      <c r="D40">
-        <v>75</v>
-      </c>
-      <c r="E40" s="1">
-        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>63</v>
-      </c>
-      <c r="F40" s="1">
-        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="G40">
         <v>23</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>8.7986800632206319E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5185</v>
+        <v>4993</v>
       </c>
       <c r="B41">
         <v>5000</v>
       </c>
       <c r="C41" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4309</v>
+        <v>4143</v>
       </c>
       <c r="D41">
         <v>75</v>
       </c>
       <c r="E41" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="G41">
         <v>23</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.65840220726322962</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>6145</v>
+        <v>6135</v>
       </c>
       <c r="B42">
         <v>6000</v>
       </c>
       <c r="C42" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6429</v>
+        <v>7196</v>
       </c>
       <c r="D42">
         <v>75</v>
       </c>
       <c r="E42" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="G42">
         <v>65</v>
       </c>
       <c r="H42" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.44428265790022115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>7103</v>
+      </c>
+      <c r="B43">
+        <v>7000</v>
+      </c>
+      <c r="C43" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>6453</v>
+      </c>
+      <c r="D43">
+        <v>75</v>
+      </c>
+      <c r="E43" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>77</v>
+      </c>
+      <c r="F43" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
-        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>7171</v>
-      </c>
-      <c r="B43">
-        <v>7000</v>
-      </c>
-      <c r="C43" s="1">
-        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>7235</v>
-      </c>
-      <c r="D43">
-        <v>75</v>
-      </c>
-      <c r="E43" s="1">
-        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>17</v>
-      </c>
-      <c r="F43" s="1">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G43">
         <v>65</v>
       </c>
       <c r="H43" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.11071214475955315</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>4966</v>
+        <v>5145</v>
       </c>
       <c r="B44">
         <v>5000</v>
       </c>
       <c r="C44" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>7406</v>
+        <v>7344</v>
       </c>
       <c r="D44">
         <v>75</v>
       </c>
       <c r="E44" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="G44">
         <v>65</v>
       </c>
       <c r="H44" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.33110564404664777</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5988</v>
+        <v>5888</v>
       </c>
       <c r="B45">
         <v>6000</v>
       </c>
       <c r="C45" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6871</v>
+        <v>7040</v>
       </c>
       <c r="D45">
         <v>75</v>
       </c>
       <c r="E45" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="G45">
         <v>65</v>
       </c>
       <c r="H45" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.16407941884150756</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
+        <v>7031</v>
+      </c>
+      <c r="B46">
+        <v>7000</v>
+      </c>
+      <c r="C46" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
+        <v>7394</v>
+      </c>
+      <c r="D46">
+        <v>75</v>
+      </c>
+      <c r="E46" s="1">
+        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>7</v>
+      </c>
+      <c r="F46" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
-        <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>7087</v>
-      </c>
-      <c r="B46">
-        <v>7000</v>
-      </c>
-      <c r="C46" s="1">
-        <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6494</v>
-      </c>
-      <c r="D46">
-        <v>75</v>
-      </c>
-      <c r="E46" s="1">
-        <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>61</v>
-      </c>
-      <c r="F46" s="1">
-        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="G46">
         <v>65</v>
       </c>
       <c r="H46" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="I46" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.71752701759424597</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5081</v>
+        <v>4812</v>
       </c>
       <c r="B47">
         <v>5000</v>
       </c>
       <c r="C47" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2648</v>
+        <v>2974</v>
       </c>
       <c r="D47">
         <v>150</v>
       </c>
       <c r="E47" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="G47">
         <v>15</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="I47" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.2673141108444248</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>6120</v>
+        <v>6100</v>
       </c>
       <c r="B48">
         <v>6000</v>
       </c>
       <c r="C48" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2659</v>
+        <v>2588</v>
       </c>
       <c r="D48">
         <v>150</v>
       </c>
       <c r="E48" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" ref="F48:F79" ca="1" si="4">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <f t="shared" ref="F48:F79" ca="1" si="6">RANDBETWEEN(0,1)</f>
+        <v>1</v>
       </c>
       <c r="G48">
         <v>15</v>
       </c>
       <c r="H48" s="1">
-        <f t="shared" ref="H48:H79" ca="1" si="5">RANDBETWEEN(10,90)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ref="H48:H79" ca="1" si="7">RANDBETWEEN(10,90)</f>
+        <v>61</v>
+      </c>
+      <c r="I48" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.84392638263724817</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>6969</v>
+        <v>6982</v>
       </c>
       <c r="B49">
         <v>7000</v>
       </c>
       <c r="C49" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2807</v>
+        <v>2850</v>
       </c>
       <c r="D49">
         <v>150</v>
       </c>
       <c r="E49" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="G49">
         <v>15</v>
       </c>
       <c r="H49" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="I49" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.95582279765766187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5117</v>
+        <v>4965</v>
       </c>
       <c r="B50">
         <v>5000</v>
       </c>
       <c r="C50" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2374</v>
+        <v>2699</v>
       </c>
       <c r="D50">
         <v>150</v>
       </c>
       <c r="E50" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="G50">
         <v>15</v>
       </c>
       <c r="H50" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>68</v>
+      </c>
+      <c r="I50" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.67912123455871987</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5969</v>
+        <v>6180</v>
       </c>
       <c r="B51">
         <v>6000</v>
       </c>
       <c r="C51" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2472</v>
+        <v>2799</v>
       </c>
       <c r="D51">
         <v>150</v>
       </c>
       <c r="E51" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F51" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="G51">
         <v>15</v>
       </c>
       <c r="H51" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>55</v>
+      </c>
+      <c r="I51" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+        <v>6.7314618215267741E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>7177</v>
+        <v>6848</v>
       </c>
       <c r="B52">
         <v>7000</v>
       </c>
       <c r="C52" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>5453</v>
+        <v>4418</v>
       </c>
       <c r="D52">
         <v>150</v>
       </c>
       <c r="E52" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F52" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="G52">
         <v>23</v>
       </c>
       <c r="H52" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>73</v>
+      </c>
+      <c r="I52" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.77501416499188913</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5130</v>
+        <v>4813</v>
       </c>
       <c r="B53">
         <v>5000</v>
       </c>
       <c r="C53" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>5131</v>
+        <v>4727</v>
       </c>
       <c r="D53">
         <v>150</v>
       </c>
       <c r="E53" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="F53" s="1">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="G53">
         <v>23</v>
       </c>
       <c r="H53" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>45</v>
+      </c>
+      <c r="I53" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.53304760280331676</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>6106</v>
+        <v>6008</v>
       </c>
       <c r="B54">
         <v>6000</v>
       </c>
       <c r="C54" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>5103</v>
+        <v>5336</v>
       </c>
       <c r="D54">
         <v>150</v>
       </c>
       <c r="E54" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="F54" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="G54">
         <v>23</v>
       </c>
       <c r="H54" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>83</v>
+      </c>
+      <c r="I54" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.71615462208448522</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>6915</v>
+        <v>6928</v>
       </c>
       <c r="B55">
         <v>7000</v>
       </c>
       <c r="C55" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4973</v>
+        <v>4186</v>
       </c>
       <c r="D55">
         <v>150</v>
       </c>
       <c r="E55" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F55" s="1">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="G55">
         <v>23</v>
       </c>
       <c r="H55" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>61</v>
+      </c>
+      <c r="I55" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.2731387127116327</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>4938</v>
+        <v>4917</v>
       </c>
       <c r="B56">
         <v>5000</v>
       </c>
       <c r="C56" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4674</v>
+        <v>5019</v>
       </c>
       <c r="D56">
         <v>150</v>
       </c>
       <c r="E56" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="F56" s="1">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="G56">
         <v>23</v>
       </c>
       <c r="H56" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>53</v>
+      </c>
+      <c r="I56" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.76312125185122681</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5999</v>
+        <v>5945</v>
       </c>
       <c r="B57">
         <v>6000</v>
       </c>
       <c r="C57" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6323</v>
+        <v>6761</v>
       </c>
       <c r="D57">
         <v>150</v>
       </c>
       <c r="E57" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="F57" s="1">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="G57">
         <v>65</v>
       </c>
       <c r="H57" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>59</v>
+      </c>
+      <c r="I57" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.64947454937095361</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>7134</v>
+        <v>6922</v>
       </c>
       <c r="B58">
         <v>7000</v>
       </c>
       <c r="C58" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6712</v>
+        <v>6106</v>
       </c>
       <c r="D58">
         <v>150</v>
       </c>
       <c r="E58" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="F58" s="1">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="G58">
         <v>65</v>
       </c>
       <c r="H58" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>53</v>
+      </c>
+      <c r="I58" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.8607331635654677</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>4980</v>
+        <v>4893</v>
       </c>
       <c r="B59">
         <v>5000</v>
       </c>
       <c r="C59" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6531</v>
+        <v>6871</v>
       </c>
       <c r="D59">
         <v>150</v>
       </c>
       <c r="E59" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="F59" s="1">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="G59">
         <v>65</v>
       </c>
       <c r="H59" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>61</v>
+      </c>
+      <c r="I59" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.36884703977302236</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>6147</v>
+        <v>5868</v>
       </c>
       <c r="B60">
         <v>6000</v>
       </c>
       <c r="C60" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>7471</v>
+        <v>6708</v>
       </c>
       <c r="D60">
         <v>150</v>
       </c>
       <c r="E60" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="G60">
         <v>65</v>
       </c>
       <c r="H60" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="I60" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.18508832205673398</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>7069</v>
+        <v>7062</v>
       </c>
       <c r="B61">
         <v>7000</v>
       </c>
       <c r="C61" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6529</v>
+        <v>6017</v>
       </c>
       <c r="D61">
         <v>150</v>
       </c>
       <c r="E61" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="F61" s="1">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="G61">
         <v>65</v>
       </c>
       <c r="H61" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="I61" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.10304467793656935</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5127</v>
+        <v>5068</v>
       </c>
       <c r="B62">
         <v>5000</v>
       </c>
       <c r="C62" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2805</v>
+        <v>2607</v>
       </c>
       <c r="D62">
         <v>75</v>
       </c>
       <c r="E62" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="F62" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="G62">
         <v>15</v>
       </c>
       <c r="H62" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>67</v>
+      </c>
+      <c r="I62" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.46587938070656498</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5956</v>
+        <v>6031</v>
       </c>
       <c r="B63">
         <v>6000</v>
       </c>
       <c r="C63" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2564</v>
+        <v>2252</v>
       </c>
       <c r="D63">
         <v>75</v>
       </c>
       <c r="E63" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="F63" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="G63">
         <v>15</v>
       </c>
       <c r="H63" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>66</v>
+      </c>
+      <c r="I63" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.78730741561097828</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>7055</v>
+        <v>7185</v>
       </c>
       <c r="B64">
         <v>7000</v>
       </c>
       <c r="C64" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2733</v>
+        <v>2431</v>
       </c>
       <c r="D64">
         <v>75</v>
       </c>
       <c r="E64" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="F64" s="1">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="G64">
         <v>15</v>
       </c>
       <c r="H64" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>64</v>
+      </c>
+      <c r="I64" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.41074274253956611</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5016</v>
+        <v>4921</v>
       </c>
       <c r="B65">
         <v>5000</v>
       </c>
       <c r="C65" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2525</v>
+        <v>2919</v>
       </c>
       <c r="D65">
         <v>75</v>
       </c>
       <c r="E65" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F65" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="G65">
         <v>15</v>
       </c>
       <c r="H65" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>43</v>
+      </c>
+      <c r="I65" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.85696983762729839</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5850</v>
+        <v>5869</v>
       </c>
       <c r="B66">
         <v>6000</v>
       </c>
       <c r="C66" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2427</v>
+        <v>2800</v>
       </c>
       <c r="D66">
         <v>75</v>
       </c>
       <c r="E66" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F66" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="G66">
         <v>15</v>
       </c>
       <c r="H66" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="I66" s="1">
+        <f t="shared" ref="I66:I97" ca="1" si="8">RAND()</f>
+        <v>0.60165079469621563</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>7119</v>
+        <v>7038</v>
       </c>
       <c r="B67">
         <v>7000</v>
       </c>
       <c r="C67" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>5460</v>
+        <v>5203</v>
       </c>
       <c r="D67">
         <v>75</v>
       </c>
       <c r="E67" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F67" s="1">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="G67">
         <v>23</v>
       </c>
       <c r="H67" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="7"/>
+        <v>67</v>
+      </c>
+      <c r="I67" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.23750542743408576</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>4944</v>
+        <v>4988</v>
       </c>
       <c r="B68">
         <v>5000</v>
       </c>
       <c r="C68" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4045</v>
+        <v>4090</v>
       </c>
       <c r="D68">
         <v>75</v>
       </c>
       <c r="E68" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="F68" s="1">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="G68">
         <v>23</v>
       </c>
       <c r="H68" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="7"/>
+        <v>75</v>
+      </c>
+      <c r="I68" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.84553793959677059</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>6088</v>
+        <v>6193</v>
       </c>
       <c r="B69">
         <v>6000</v>
       </c>
       <c r="C69" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4061</v>
+        <v>4981</v>
       </c>
       <c r="D69">
         <v>75</v>
       </c>
       <c r="E69" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F69" s="1">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="G69">
         <v>23</v>
       </c>
       <c r="H69" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="I69" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.86722004285313836</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>6837</v>
+        <v>6886</v>
       </c>
       <c r="B70">
         <v>7000</v>
       </c>
       <c r="C70" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4401</v>
+        <v>5349</v>
       </c>
       <c r="D70">
         <v>75</v>
       </c>
       <c r="E70" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="G70">
         <v>23</v>
       </c>
       <c r="H70" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="7"/>
+        <v>75</v>
+      </c>
+      <c r="I70" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.19158674382974816</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>4969</v>
+        <v>4824</v>
       </c>
       <c r="B71">
         <v>5000</v>
       </c>
       <c r="C71" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>5198</v>
+        <v>4034</v>
       </c>
       <c r="D71">
         <v>75</v>
       </c>
       <c r="E71" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="F71" s="1">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="G71">
         <v>23</v>
       </c>
       <c r="H71" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="I71" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.33604599880026209</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>6092</v>
+        <v>6120</v>
       </c>
       <c r="B72">
         <v>6000</v>
       </c>
       <c r="C72" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6380</v>
+        <v>6609</v>
       </c>
       <c r="D72">
         <v>75</v>
       </c>
       <c r="E72" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F72" s="1">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="G72">
         <v>65</v>
       </c>
       <c r="H72" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="I72" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.91421809854467184</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>6852</v>
+        <v>7144</v>
       </c>
       <c r="B73">
         <v>7000</v>
       </c>
       <c r="C73" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6281</v>
+        <v>6135</v>
       </c>
       <c r="D73">
         <v>75</v>
       </c>
       <c r="E73" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="F73" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="G73">
         <v>65</v>
       </c>
       <c r="H73" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="I73" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>8.9774607668601569E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5079</v>
+        <v>5025</v>
       </c>
       <c r="B74">
         <v>5000</v>
       </c>
       <c r="C74" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>7041</v>
+        <v>6295</v>
       </c>
       <c r="D74">
         <v>75</v>
       </c>
       <c r="E74" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="G74">
         <v>65</v>
       </c>
       <c r="H74" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="7"/>
+        <v>85</v>
+      </c>
+      <c r="I74" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.73958377983006018</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5973</v>
+        <v>5913</v>
       </c>
       <c r="B75">
         <v>6000</v>
       </c>
       <c r="C75" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6959</v>
+        <v>6857</v>
       </c>
       <c r="D75">
         <v>75</v>
       </c>
       <c r="E75" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="F75" s="1">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="G75">
         <v>65</v>
       </c>
       <c r="H75" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="7"/>
+        <v>42</v>
+      </c>
+      <c r="I75" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.60267649136607093</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>6964</v>
+        <v>6871</v>
       </c>
       <c r="B76">
         <v>7000</v>
       </c>
       <c r="C76" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6936</v>
+        <v>7077</v>
       </c>
       <c r="D76">
         <v>75</v>
       </c>
       <c r="E76" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F76" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="G76">
         <v>65</v>
       </c>
       <c r="H76" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="I76" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.51452164894181174</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>4800</v>
+        <v>4955</v>
       </c>
       <c r="B77">
         <v>5000</v>
       </c>
       <c r="C77" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2718</v>
+        <v>2409</v>
       </c>
       <c r="D77">
         <v>150</v>
       </c>
       <c r="E77" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="F77" s="1">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="G77">
         <v>15</v>
       </c>
       <c r="H77" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="7"/>
+        <v>53</v>
+      </c>
+      <c r="I77" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.95127256205720034</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>6131</v>
+        <v>6107</v>
       </c>
       <c r="B78">
         <v>6000</v>
       </c>
       <c r="C78" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2900</v>
+        <v>2151</v>
       </c>
       <c r="D78">
         <v>150</v>
       </c>
       <c r="E78" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="F78" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
       </c>
       <c r="G78">
         <v>15</v>
       </c>
       <c r="H78" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="I78" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.25581875037722435</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>6998</v>
+        <v>6843</v>
       </c>
       <c r="B79">
         <v>7000</v>
       </c>
       <c r="C79" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2941</v>
+        <v>2086</v>
       </c>
       <c r="D79">
         <v>150</v>
       </c>
       <c r="E79" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="F79" s="1">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="G79">
         <v>15</v>
       </c>
       <c r="H79" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="7"/>
+        <v>83</v>
+      </c>
+      <c r="I79" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.19296769049708762</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>4940</v>
+        <v>4815</v>
       </c>
       <c r="B80">
         <v>5000</v>
       </c>
       <c r="C80" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2565</v>
+        <v>2130</v>
       </c>
       <c r="D80">
         <v>150</v>
       </c>
       <c r="E80" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F80" s="1">
-        <f t="shared" ref="F80:F101" ca="1" si="6">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <f t="shared" ref="F80:F101" ca="1" si="9">RANDBETWEEN(0,1)</f>
+        <v>1</v>
       </c>
       <c r="G80">
         <v>15</v>
       </c>
       <c r="H80" s="1">
-        <f t="shared" ref="H80:H101" ca="1" si="7">RANDBETWEEN(10,90)</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ref="H80:H101" ca="1" si="10">RANDBETWEEN(10,90)</f>
+        <v>84</v>
+      </c>
+      <c r="I80" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.95983357090703347</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5956</v>
+        <v>6152</v>
       </c>
       <c r="B81">
         <v>6000</v>
       </c>
       <c r="C81" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2236</v>
+        <v>2274</v>
       </c>
       <c r="D81">
         <v>150</v>
       </c>
       <c r="E81" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="F81" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
       <c r="G81">
         <v>15</v>
       </c>
       <c r="H81" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="10"/>
+        <v>51</v>
+      </c>
+      <c r="I81" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.82038032872314581</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>6939</v>
+        <v>7182</v>
       </c>
       <c r="B82">
         <v>7000</v>
       </c>
       <c r="C82" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4403</v>
+        <v>5493</v>
       </c>
       <c r="D82">
         <v>150</v>
       </c>
       <c r="E82" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F82" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
       <c r="G82">
         <v>23</v>
       </c>
       <c r="H82" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="10"/>
+        <v>56</v>
+      </c>
+      <c r="I82" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.210720431313005</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>4913</v>
+        <v>4802</v>
       </c>
       <c r="B83">
         <v>5000</v>
       </c>
       <c r="C83" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4501</v>
+        <v>4696</v>
       </c>
       <c r="D83">
         <v>150</v>
       </c>
       <c r="E83" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F83" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="G83">
         <v>23</v>
       </c>
       <c r="H83" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="I83" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.69439096447362025</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>6166</v>
+        <v>6184</v>
       </c>
       <c r="B84">
         <v>6000</v>
       </c>
       <c r="C84" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4278</v>
+        <v>4951</v>
       </c>
       <c r="D84">
         <v>150</v>
       </c>
       <c r="E84" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="F84" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="G84">
         <v>23</v>
       </c>
       <c r="H84" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="I84" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.60086129371655006</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>6938</v>
+        <v>7010</v>
       </c>
       <c r="B85">
         <v>7000</v>
       </c>
       <c r="C85" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4666</v>
+        <v>5035</v>
       </c>
       <c r="D85">
         <v>150</v>
       </c>
       <c r="E85" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F85" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
       <c r="G85">
         <v>23</v>
       </c>
       <c r="H85" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="I85" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.26192234958452443</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5114</v>
+        <v>4936</v>
       </c>
       <c r="B86">
         <v>5000</v>
       </c>
       <c r="C86" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>5111</v>
+        <v>4806</v>
       </c>
       <c r="D86">
         <v>150</v>
       </c>
       <c r="E86" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="F86" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
       <c r="G86">
         <v>23</v>
       </c>
       <c r="H86" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="10"/>
+        <v>44</v>
+      </c>
+      <c r="I86" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.16123741236715983</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>6124</v>
+        <v>6105</v>
       </c>
       <c r="B87">
         <v>6000</v>
       </c>
       <c r="C87" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6760</v>
+        <v>6852</v>
       </c>
       <c r="D87">
         <v>150</v>
       </c>
       <c r="E87" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F87" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
       <c r="G87">
         <v>65</v>
       </c>
       <c r="H87" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="I87" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.43725025776179671</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>7035</v>
+        <v>7163</v>
       </c>
       <c r="B88">
         <v>7000</v>
       </c>
       <c r="C88" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>7325</v>
+        <v>6847</v>
       </c>
       <c r="D88">
         <v>150</v>
       </c>
       <c r="E88" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F88" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
       <c r="G88">
         <v>65</v>
       </c>
       <c r="H88" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="10"/>
+        <v>81</v>
+      </c>
+      <c r="I88" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.91751680394308621</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5023</v>
+        <v>4913</v>
       </c>
       <c r="B89">
         <v>5000</v>
       </c>
       <c r="C89" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6364</v>
+        <v>7127</v>
       </c>
       <c r="D89">
         <v>150</v>
       </c>
       <c r="E89" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F89" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
       <c r="G89">
         <v>65</v>
       </c>
       <c r="H89" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>69</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I89" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.34227236349141277</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5947</v>
+        <v>6155</v>
       </c>
       <c r="B90">
         <v>6000</v>
       </c>
       <c r="C90" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>7263</v>
+        <v>7491</v>
       </c>
       <c r="D90">
         <v>150</v>
       </c>
       <c r="E90" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="F90" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
       <c r="G90">
         <v>65</v>
       </c>
       <c r="H90" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="I90" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>7.9742869102067404E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>6964</v>
+        <v>6936</v>
       </c>
       <c r="B91">
         <v>7000</v>
       </c>
       <c r="C91" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6599</v>
+        <v>6019</v>
       </c>
       <c r="D91">
         <v>150</v>
       </c>
       <c r="E91" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="F91" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
       <c r="G91">
         <v>65</v>
       </c>
       <c r="H91" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="10"/>
+        <v>41</v>
+      </c>
+      <c r="I91" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.32438479654678187</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>4831</v>
+        <v>5077</v>
       </c>
       <c r="B92">
         <v>5000</v>
       </c>
       <c r="C92" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2109</v>
+        <v>2521</v>
       </c>
       <c r="D92">
         <v>75</v>
       </c>
       <c r="E92" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F92" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
       <c r="G92">
         <v>15</v>
       </c>
       <c r="H92" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="I92" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.49850415668340808</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>6028</v>
+        <v>5959</v>
       </c>
       <c r="B93">
         <v>6000</v>
       </c>
       <c r="C93" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2948</v>
+        <v>2227</v>
       </c>
       <c r="D93">
         <v>75</v>
       </c>
       <c r="E93" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
+        <v>66</v>
+      </c>
+      <c r="F93" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>15</v>
+      </c>
+      <c r="H93" s="1">
+        <f t="shared" ca="1" si="10"/>
         <v>78</v>
       </c>
-      <c r="F93" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <v>15</v>
-      </c>
-      <c r="H93" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I93" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.73204995107982584</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>7154</v>
+        <v>7015</v>
       </c>
       <c r="B94">
         <v>7000</v>
       </c>
       <c r="C94" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2839</v>
+        <v>2165</v>
       </c>
       <c r="D94">
         <v>75</v>
       </c>
       <c r="E94" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F94" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
       <c r="G94">
         <v>15</v>
       </c>
       <c r="H94" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="I94" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.65563640075508101</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>4933</v>
+        <v>5139</v>
       </c>
       <c r="B95">
         <v>5000</v>
       </c>
       <c r="C95" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2536</v>
+        <v>2735</v>
       </c>
       <c r="D95">
         <v>75</v>
       </c>
       <c r="E95" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="F95" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
       <c r="G95">
         <v>15</v>
       </c>
       <c r="H95" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="10"/>
+        <v>45</v>
+      </c>
+      <c r="I95" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.47376175250998709</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5890</v>
+        <v>6195</v>
       </c>
       <c r="B96">
         <v>6000</v>
       </c>
       <c r="C96" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2974</v>
+        <v>2506</v>
       </c>
       <c r="D96">
         <v>75</v>
       </c>
       <c r="E96" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="F96" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="G96">
         <v>15</v>
       </c>
       <c r="H96" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="I96" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.64850191162131565</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>7091</v>
+        <v>7135</v>
       </c>
       <c r="B97">
         <v>7000</v>
       </c>
       <c r="C97" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>5293</v>
+        <v>5493</v>
       </c>
       <c r="D97">
         <v>75</v>
       </c>
       <c r="E97" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="F97" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
       <c r="G97">
         <v>23</v>
       </c>
       <c r="H97" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="10"/>
+        <v>27</v>
+      </c>
+      <c r="I97" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.13197601721270269</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>4977</v>
+        <v>4905</v>
       </c>
       <c r="B98">
         <v>5000</v>
       </c>
       <c r="C98" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>5232</v>
+        <v>4636</v>
       </c>
       <c r="D98">
         <v>75</v>
       </c>
       <c r="E98" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F98" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
       <c r="G98">
         <v>23</v>
       </c>
       <c r="H98" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="10"/>
+        <v>74</v>
+      </c>
+      <c r="I98" s="1">
+        <f t="shared" ref="I98:I121" ca="1" si="11">RAND()</f>
+        <v>0.60998858290848545</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5811</v>
+        <v>6089</v>
       </c>
       <c r="B99">
         <v>6000</v>
       </c>
       <c r="C99" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4061</v>
+        <v>4426</v>
       </c>
       <c r="D99">
         <v>75</v>
       </c>
       <c r="E99" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F99" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
       <c r="G99">
         <v>23</v>
       </c>
       <c r="H99" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="I99" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.49443749359416445</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>7071</v>
+        <v>7018</v>
       </c>
       <c r="B100">
         <v>7000</v>
       </c>
       <c r="C100" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4274</v>
+        <v>4604</v>
       </c>
       <c r="D100">
         <v>75</v>
       </c>
       <c r="E100" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F100" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
       <c r="G100">
         <v>23</v>
       </c>
       <c r="H100" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="I100" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.36460034945016151</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5027</v>
+        <v>4966</v>
       </c>
       <c r="B101">
         <v>5000</v>
       </c>
       <c r="C101" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4743</v>
+        <v>5007</v>
       </c>
       <c r="D101">
         <v>75</v>
       </c>
       <c r="E101" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F101" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
       <c r="G101">
         <v>23</v>
       </c>
       <c r="H101" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="I101" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.20387424212012506</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>6133</v>
+        <v>5871</v>
       </c>
       <c r="B102">
         <v>6000</v>
       </c>
       <c r="C102" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6922</v>
+        <v>6969</v>
       </c>
       <c r="D102">
         <v>75</v>
       </c>
       <c r="E102" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="F102" s="1">
-        <f t="shared" ref="F102:F121" ca="1" si="8">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <f t="shared" ref="F102:F121" ca="1" si="12">RANDBETWEEN(0,1)</f>
+        <v>0</v>
       </c>
       <c r="G102">
         <v>65</v>
       </c>
       <c r="H102" s="1">
-        <f t="shared" ref="H102:H121" ca="1" si="9">RANDBETWEEN(10,90)</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ref="H102:H121" ca="1" si="13">RANDBETWEEN(10,90)</f>
+        <v>31</v>
+      </c>
+      <c r="I102" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.995274498898163</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>6810</v>
+        <v>7000</v>
       </c>
       <c r="B103">
         <v>7000</v>
       </c>
       <c r="C103" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6019</v>
+        <v>6579</v>
       </c>
       <c r="D103">
         <v>75</v>
       </c>
       <c r="E103" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="F103" s="1">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="G103">
         <v>65</v>
       </c>
       <c r="H103" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="13"/>
+        <v>32</v>
+      </c>
+      <c r="I103" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.6692592103696603</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>4914</v>
+        <v>4927</v>
       </c>
       <c r="B104">
         <v>5000</v>
       </c>
       <c r="C104" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6344</v>
+        <v>6818</v>
       </c>
       <c r="D104">
         <v>75</v>
       </c>
       <c r="E104" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="F104" s="1">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="G104">
         <v>65</v>
       </c>
       <c r="H104" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="I104" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.21554477597636157</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>6159</v>
+        <v>5943</v>
       </c>
       <c r="B105">
         <v>6000</v>
       </c>
       <c r="C105" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>7460</v>
+        <v>6413</v>
       </c>
       <c r="D105">
         <v>75</v>
       </c>
       <c r="E105" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F105" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="G105">
         <v>65</v>
       </c>
       <c r="H105" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="13"/>
+        <v>88</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.83279243704699024</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>6899</v>
+        <v>7057</v>
       </c>
       <c r="B106">
         <v>7000</v>
       </c>
       <c r="C106" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6959</v>
+        <v>6955</v>
       </c>
       <c r="D106">
         <v>75</v>
       </c>
       <c r="E106" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="F106" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
       </c>
       <c r="G106">
         <v>65</v>
       </c>
       <c r="H106" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="13"/>
+        <v>40</v>
+      </c>
+      <c r="I106" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.17337465017303921</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>4801</v>
+        <v>5016</v>
       </c>
       <c r="B107">
         <v>5000</v>
       </c>
       <c r="C107" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2920</v>
+        <v>2947</v>
       </c>
       <c r="D107">
         <v>150</v>
       </c>
       <c r="E107" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="F107" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="G107">
         <v>15</v>
       </c>
       <c r="H107" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="13"/>
+        <v>45</v>
+      </c>
+      <c r="I107" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.57608903089696917</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5818</v>
+        <v>6168</v>
       </c>
       <c r="B108">
         <v>6000</v>
       </c>
       <c r="C108" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2623</v>
+        <v>2098</v>
       </c>
       <c r="D108">
         <v>150</v>
@@ -3830,418 +4267,474 @@
         <v>68</v>
       </c>
       <c r="F108" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
       </c>
       <c r="G108">
         <v>15</v>
       </c>
       <c r="H108" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="I108" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.3442968909808134</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>7057</v>
+        <v>6973</v>
       </c>
       <c r="B109">
         <v>7000</v>
       </c>
       <c r="C109" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2394</v>
+        <v>2515</v>
       </c>
       <c r="D109">
         <v>150</v>
       </c>
       <c r="E109" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F109" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="G109">
         <v>15</v>
       </c>
       <c r="H109" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="13"/>
+        <v>77</v>
+      </c>
+      <c r="I109" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.89053380257214076</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>4930</v>
+        <v>5125</v>
       </c>
       <c r="B110">
         <v>5000</v>
       </c>
       <c r="C110" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2352</v>
+        <v>2564</v>
       </c>
       <c r="D110">
         <v>150</v>
       </c>
       <c r="E110" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="F110" s="1">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="G110">
         <v>15</v>
       </c>
       <c r="H110" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="13"/>
+        <v>87</v>
+      </c>
+      <c r="I110" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.26011786195337949</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>6094</v>
+        <v>6159</v>
       </c>
       <c r="B111">
         <v>6000</v>
       </c>
       <c r="C111" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2373</v>
+        <v>2241</v>
       </c>
       <c r="D111">
         <v>150</v>
       </c>
       <c r="E111" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F111" s="1">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="G111">
         <v>15</v>
       </c>
       <c r="H111" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="13"/>
+        <v>40</v>
+      </c>
+      <c r="I111" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.8246996611558044</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>6935</v>
+        <v>6954</v>
       </c>
       <c r="B112">
         <v>7000</v>
       </c>
       <c r="C112" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>5147</v>
+        <v>5440</v>
       </c>
       <c r="D112">
         <v>150</v>
       </c>
       <c r="E112" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="F112" s="1">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="G112">
         <v>23</v>
       </c>
       <c r="H112" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="13"/>
+        <v>39</v>
+      </c>
+      <c r="I112" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.22836817832043832</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>4828</v>
+        <v>5025</v>
       </c>
       <c r="B113">
         <v>5000</v>
       </c>
       <c r="C113" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>5017</v>
+        <v>4992</v>
       </c>
       <c r="D113">
         <v>150</v>
       </c>
       <c r="E113" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F113" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
       </c>
       <c r="G113">
         <v>23</v>
       </c>
       <c r="H113" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="13"/>
+        <v>88</v>
+      </c>
+      <c r="I113" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.18486562627258829</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>6097</v>
+        <v>6137</v>
       </c>
       <c r="B114">
         <v>6000</v>
       </c>
       <c r="C114" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>5120</v>
+        <v>5073</v>
       </c>
       <c r="D114">
         <v>150</v>
       </c>
       <c r="E114" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F114" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="G114">
         <v>23</v>
       </c>
       <c r="H114" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="13"/>
+        <v>51</v>
+      </c>
+      <c r="I114" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.92794323471657036</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>7058</v>
+        <v>7006</v>
       </c>
       <c r="B115">
         <v>7000</v>
       </c>
       <c r="C115" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>5328</v>
+        <v>4346</v>
       </c>
       <c r="D115">
         <v>150</v>
       </c>
       <c r="E115" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="F115" s="1">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="G115">
         <v>23</v>
       </c>
       <c r="H115" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="13"/>
+        <v>54</v>
+      </c>
+      <c r="I115" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.40166665906277088</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5160</v>
+        <v>5126</v>
       </c>
       <c r="B116">
         <v>5000</v>
       </c>
       <c r="C116" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>5362</v>
+        <v>4507</v>
       </c>
       <c r="D116">
         <v>150</v>
       </c>
       <c r="E116" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F116" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
       </c>
       <c r="G116">
         <v>23</v>
       </c>
       <c r="H116" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="13"/>
+        <v>69</v>
+      </c>
+      <c r="I116" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.9563967111615691</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5996</v>
+        <v>6172</v>
       </c>
       <c r="B117">
         <v>6000</v>
       </c>
       <c r="C117" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6436</v>
+        <v>6611</v>
       </c>
       <c r="D117">
         <v>150</v>
       </c>
       <c r="E117" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F117" s="1">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="G117">
         <v>65</v>
       </c>
       <c r="H117" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="13"/>
+        <v>31</v>
+      </c>
+      <c r="I117" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.90093588575400685</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>7043</v>
+        <v>7127</v>
       </c>
       <c r="B118">
         <v>7000</v>
       </c>
       <c r="C118" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6459</v>
+        <v>7397</v>
       </c>
       <c r="D118">
         <v>150</v>
       </c>
       <c r="E118" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F118" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
       </c>
       <c r="G118">
         <v>65</v>
       </c>
       <c r="H118" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="13"/>
+        <v>46</v>
+      </c>
+      <c r="I118" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>5.5330089333636145E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5110</v>
+        <v>4859</v>
       </c>
       <c r="B119">
         <v>5000</v>
       </c>
       <c r="C119" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6393</v>
+        <v>7140</v>
       </c>
       <c r="D119">
         <v>150</v>
       </c>
       <c r="E119" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F119" s="1">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="G119">
         <v>65</v>
       </c>
       <c r="H119" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="13"/>
+        <v>38</v>
+      </c>
+      <c r="I119" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.95551181704470622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>5881</v>
+        <v>5963</v>
       </c>
       <c r="B120">
         <v>6000</v>
       </c>
       <c r="C120" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>7412</v>
+        <v>6055</v>
       </c>
       <c r="D120">
         <v>150</v>
       </c>
       <c r="E120" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="F120" s="1">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="G120">
         <v>65</v>
       </c>
       <c r="H120" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="13"/>
+        <v>88</v>
+      </c>
+      <c r="I120" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.62161201350647155</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <f ca="1">Table1[[#This Row],[Velocity Needed]]+RANDBETWEEN(-200,200)</f>
-        <v>6914</v>
+        <v>7122</v>
       </c>
       <c r="B121">
         <v>7000</v>
       </c>
       <c r="C121" s="1">
         <f ca="1">IF(Table1[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table1[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table1[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6188</v>
+        <v>6009</v>
       </c>
       <c r="D121">
         <v>150</v>
       </c>
       <c r="E121" s="1">
         <f ca="1">IF(Table1[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F121" s="1">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="G121">
         <v>65</v>
       </c>
       <c r="H121" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>88</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="I121" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.4645316309555082</v>
       </c>
     </row>
   </sheetData>
@@ -4295,14 +4788,14 @@
       </c>
       <c r="B2">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2267</v>
+        <v>2946</v>
       </c>
       <c r="C2">
         <v>75</v>
       </c>
       <c r="D2">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E31" ca="1" si="0">RANDBETWEEN(0,1)</f>
@@ -4313,7 +4806,7 @@
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G31" ca="1" si="1">RANDBETWEEN(10,90)</f>
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -4322,25 +4815,25 @@
       </c>
       <c r="B3">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2696</v>
+        <v>2307</v>
       </c>
       <c r="C3">
         <v>75</v>
       </c>
       <c r="D3">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>15</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -4349,14 +4842,14 @@
       </c>
       <c r="B4">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2933</v>
+        <v>2821</v>
       </c>
       <c r="C4">
         <v>75</v>
       </c>
       <c r="D4">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
@@ -4367,7 +4860,7 @@
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -4376,25 +4869,25 @@
       </c>
       <c r="B5">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2952</v>
+        <v>2071</v>
       </c>
       <c r="C5">
         <v>75</v>
       </c>
       <c r="D5">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>15</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -4403,25 +4896,25 @@
       </c>
       <c r="B6">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2292</v>
+        <v>2518</v>
       </c>
       <c r="C6">
         <v>75</v>
       </c>
       <c r="D6">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>15</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -4430,14 +4923,14 @@
       </c>
       <c r="B7">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4948</v>
+        <v>4765</v>
       </c>
       <c r="C7">
         <v>75</v>
       </c>
       <c r="D7">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
@@ -4448,7 +4941,7 @@
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -4457,25 +4950,25 @@
       </c>
       <c r="B8">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>5067</v>
+        <v>4997</v>
       </c>
       <c r="C8">
         <v>75</v>
       </c>
       <c r="D8">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>23</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -4484,14 +4977,14 @@
       </c>
       <c r="B9">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4231</v>
+        <v>4060</v>
       </c>
       <c r="C9">
         <v>75</v>
       </c>
       <c r="D9">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
@@ -4502,7 +4995,7 @@
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -4511,25 +5004,25 @@
       </c>
       <c r="B10">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4176</v>
+        <v>4201</v>
       </c>
       <c r="C10">
         <v>75</v>
       </c>
       <c r="D10">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>23</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -4538,25 +5031,25 @@
       </c>
       <c r="B11">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4291</v>
+        <v>4799</v>
       </c>
       <c r="C11">
         <v>75</v>
       </c>
       <c r="D11">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>23</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -4565,25 +5058,25 @@
       </c>
       <c r="B12">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6799</v>
+        <v>6283</v>
       </c>
       <c r="C12">
         <v>75</v>
       </c>
       <c r="D12">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>65</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -4592,14 +5085,14 @@
       </c>
       <c r="B13">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>7170</v>
+        <v>6102</v>
       </c>
       <c r="C13">
         <v>75</v>
       </c>
       <c r="D13">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
@@ -4610,7 +5103,7 @@
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -4619,25 +5112,25 @@
       </c>
       <c r="B14">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>7111</v>
+        <v>6267</v>
       </c>
       <c r="C14">
         <v>75</v>
       </c>
       <c r="D14">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>65</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -4646,14 +5139,14 @@
       </c>
       <c r="B15">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6728</v>
+        <v>7435</v>
       </c>
       <c r="C15">
         <v>75</v>
       </c>
       <c r="D15">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
@@ -4664,7 +5157,7 @@
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -4673,25 +5166,25 @@
       </c>
       <c r="B16">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6304</v>
+        <v>6000</v>
       </c>
       <c r="C16">
         <v>75</v>
       </c>
       <c r="D16">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>65</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -4700,14 +5193,14 @@
       </c>
       <c r="B17">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2987</v>
+        <v>2034</v>
       </c>
       <c r="C17">
         <v>150</v>
       </c>
       <c r="D17">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
@@ -4718,7 +5211,7 @@
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -4727,25 +5220,25 @@
       </c>
       <c r="B18">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2209</v>
+        <v>2357</v>
       </c>
       <c r="C18">
         <v>150</v>
       </c>
       <c r="D18">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>15</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -4754,25 +5247,25 @@
       </c>
       <c r="B19">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2890</v>
+        <v>2138</v>
       </c>
       <c r="C19">
         <v>150</v>
       </c>
       <c r="D19">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>15</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -4781,14 +5274,14 @@
       </c>
       <c r="B20">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2085</v>
+        <v>2538</v>
       </c>
       <c r="C20">
         <v>150</v>
       </c>
       <c r="D20">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
@@ -4799,7 +5292,7 @@
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -4808,25 +5301,25 @@
       </c>
       <c r="B21">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2365</v>
+        <v>2332</v>
       </c>
       <c r="C21">
         <v>150</v>
       </c>
       <c r="D21">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>15</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -4835,25 +5328,25 @@
       </c>
       <c r="B22">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>5454</v>
+        <v>5253</v>
       </c>
       <c r="C22">
         <v>150</v>
       </c>
       <c r="D22">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>23</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -4862,25 +5355,25 @@
       </c>
       <c r="B23">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4558</v>
+        <v>4257</v>
       </c>
       <c r="C23">
         <v>150</v>
       </c>
       <c r="D23">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>23</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -4889,14 +5382,14 @@
       </c>
       <c r="B24">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>5030</v>
+        <v>4445</v>
       </c>
       <c r="C24">
         <v>150</v>
       </c>
       <c r="D24">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
@@ -4907,7 +5400,7 @@
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -4916,14 +5409,14 @@
       </c>
       <c r="B25">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4732</v>
+        <v>4606</v>
       </c>
       <c r="C25">
         <v>150</v>
       </c>
       <c r="D25">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
@@ -4934,7 +5427,7 @@
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -4943,25 +5436,25 @@
       </c>
       <c r="B26">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4390</v>
+        <v>4989</v>
       </c>
       <c r="C26">
         <v>150</v>
       </c>
       <c r="D26">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>23</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -4970,14 +5463,14 @@
       </c>
       <c r="B27">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6240</v>
+        <v>6325</v>
       </c>
       <c r="C27">
         <v>150</v>
       </c>
       <c r="D27">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
@@ -4988,7 +5481,7 @@
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -4997,14 +5490,14 @@
       </c>
       <c r="B28">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>7167</v>
+        <v>7420</v>
       </c>
       <c r="C28">
         <v>150</v>
       </c>
       <c r="D28">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
@@ -5015,7 +5508,7 @@
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -5024,25 +5517,25 @@
       </c>
       <c r="B29">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6484</v>
+        <v>6583</v>
       </c>
       <c r="C29">
         <v>150</v>
       </c>
       <c r="D29">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>65</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -5051,25 +5544,25 @@
       </c>
       <c r="B30">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6006</v>
+        <v>6679</v>
       </c>
       <c r="C30">
         <v>150</v>
       </c>
       <c r="D30">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>65</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -5078,25 +5571,25 @@
       </c>
       <c r="B31">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>7479</v>
+        <v>7300</v>
       </c>
       <c r="C31">
         <v>150</v>
       </c>
       <c r="D31">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>65</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -5105,25 +5598,25 @@
       </c>
       <c r="B32" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2138</v>
+        <v>2026</v>
       </c>
       <c r="C32">
         <v>75</v>
       </c>
       <c r="D32" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" ref="E32:E63" ca="1" si="2">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <v>15</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" ref="G32:G63" ca="1" si="3">RANDBETWEEN(10,90)</f>
-        <v>35</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -5132,14 +5625,14 @@
       </c>
       <c r="B33" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2068</v>
+        <v>2405</v>
       </c>
       <c r="C33">
         <v>75</v>
       </c>
       <c r="D33" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -5150,7 +5643,7 @@
       </c>
       <c r="G33" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -5159,25 +5652,25 @@
       </c>
       <c r="B34" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2242</v>
+        <v>2803</v>
       </c>
       <c r="C34">
         <v>75</v>
       </c>
       <c r="D34" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>15</v>
       </c>
       <c r="G34" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -5186,25 +5679,25 @@
       </c>
       <c r="B35" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2510</v>
+        <v>2567</v>
       </c>
       <c r="C35">
         <v>75</v>
       </c>
       <c r="D35" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
         <v>15</v>
       </c>
       <c r="G35" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -5213,25 +5706,25 @@
       </c>
       <c r="B36" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2852</v>
+        <v>2150</v>
       </c>
       <c r="C36">
         <v>75</v>
       </c>
       <c r="D36" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>15</v>
       </c>
       <c r="G36" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -5240,25 +5733,25 @@
       </c>
       <c r="B37" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4047</v>
+        <v>4063</v>
       </c>
       <c r="C37">
         <v>75</v>
       </c>
       <c r="D37" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <v>23</v>
       </c>
       <c r="G37" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -5267,25 +5760,25 @@
       </c>
       <c r="B38" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4108</v>
+        <v>5265</v>
       </c>
       <c r="C38">
         <v>75</v>
       </c>
       <c r="D38" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>23</v>
       </c>
       <c r="G38" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -5294,14 +5787,14 @@
       </c>
       <c r="B39" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4061</v>
+        <v>4562</v>
       </c>
       <c r="C39">
         <v>75</v>
       </c>
       <c r="D39" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="E39" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -5312,7 +5805,7 @@
       </c>
       <c r="G39" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -5321,25 +5814,25 @@
       </c>
       <c r="B40" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>5353</v>
+        <v>4987</v>
       </c>
       <c r="C40">
         <v>75</v>
       </c>
       <c r="D40" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="E40" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>23</v>
       </c>
       <c r="G40" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -5348,14 +5841,14 @@
       </c>
       <c r="B41" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4779</v>
+        <v>4998</v>
       </c>
       <c r="C41">
         <v>75</v>
       </c>
       <c r="D41" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E41" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -5366,7 +5859,7 @@
       </c>
       <c r="G41" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -5375,14 +5868,14 @@
       </c>
       <c r="B42" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>7228</v>
+        <v>7043</v>
       </c>
       <c r="C42">
         <v>75</v>
       </c>
       <c r="D42" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="E42" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -5393,7 +5886,7 @@
       </c>
       <c r="G42" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -5402,25 +5895,25 @@
       </c>
       <c r="B43" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>7028</v>
+        <v>6151</v>
       </c>
       <c r="C43">
         <v>75</v>
       </c>
       <c r="D43" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E43" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>65</v>
       </c>
       <c r="G43" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -5429,25 +5922,25 @@
       </c>
       <c r="B44" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6735</v>
+        <v>6993</v>
       </c>
       <c r="C44">
         <v>75</v>
       </c>
       <c r="D44" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E44" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
         <v>65</v>
       </c>
       <c r="G44" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -5456,25 +5949,25 @@
       </c>
       <c r="B45" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6147</v>
+        <v>7284</v>
       </c>
       <c r="C45">
         <v>75</v>
       </c>
       <c r="D45" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E45" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <v>65</v>
       </c>
       <c r="G45" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -5483,25 +5976,25 @@
       </c>
       <c r="B46" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>7208</v>
+        <v>6508</v>
       </c>
       <c r="C46">
         <v>75</v>
       </c>
       <c r="D46" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E46" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>65</v>
       </c>
       <c r="G46" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -5510,18 +6003,18 @@
       </c>
       <c r="B47" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2924</v>
+        <v>2152</v>
       </c>
       <c r="C47">
         <v>150</v>
       </c>
       <c r="D47" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E47" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <v>15</v>
@@ -5537,14 +6030,14 @@
       </c>
       <c r="B48" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2295</v>
+        <v>2828</v>
       </c>
       <c r="C48">
         <v>150</v>
       </c>
       <c r="D48" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E48" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -5555,7 +6048,7 @@
       </c>
       <c r="G48" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -5564,14 +6057,14 @@
       </c>
       <c r="B49" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2069</v>
+        <v>2213</v>
       </c>
       <c r="C49">
         <v>150</v>
       </c>
       <c r="D49" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="E49" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -5582,7 +6075,7 @@
       </c>
       <c r="G49" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -5591,25 +6084,25 @@
       </c>
       <c r="B50" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2250</v>
+        <v>2961</v>
       </c>
       <c r="C50">
         <v>150</v>
       </c>
       <c r="D50" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="E50" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
         <v>15</v>
       </c>
       <c r="G50" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -5618,14 +6111,14 @@
       </c>
       <c r="B51" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2358</v>
+        <v>2073</v>
       </c>
       <c r="C51">
         <v>150</v>
       </c>
       <c r="D51" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="E51" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -5636,7 +6129,7 @@
       </c>
       <c r="G51" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -5645,18 +6138,18 @@
       </c>
       <c r="B52" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4384</v>
+        <v>5221</v>
       </c>
       <c r="C52">
         <v>150</v>
       </c>
       <c r="D52" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E52" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
         <v>23</v>
@@ -5672,14 +6165,14 @@
       </c>
       <c r="B53" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>5287</v>
+        <v>4229</v>
       </c>
       <c r="C53">
         <v>150</v>
       </c>
       <c r="D53" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E53" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -5690,7 +6183,7 @@
       </c>
       <c r="G53" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -5699,25 +6192,25 @@
       </c>
       <c r="B54" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4861</v>
+        <v>5384</v>
       </c>
       <c r="C54">
         <v>150</v>
       </c>
       <c r="D54" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="E54" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
         <v>23</v>
       </c>
       <c r="G54" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -5726,14 +6219,14 @@
       </c>
       <c r="B55" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4602</v>
+        <v>5001</v>
       </c>
       <c r="C55">
         <v>150</v>
       </c>
       <c r="D55" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E55" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -5744,7 +6237,7 @@
       </c>
       <c r="G55" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -5753,14 +6246,14 @@
       </c>
       <c r="B56" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4121</v>
+        <v>4612</v>
       </c>
       <c r="C56">
         <v>150</v>
       </c>
       <c r="D56" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="E56" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -5771,7 +6264,7 @@
       </c>
       <c r="G56" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -5780,25 +6273,25 @@
       </c>
       <c r="B57" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6652</v>
+        <v>6675</v>
       </c>
       <c r="C57">
         <v>150</v>
       </c>
       <c r="D57" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="E57" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
         <v>65</v>
       </c>
       <c r="G57" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -5807,25 +6300,25 @@
       </c>
       <c r="B58" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6572</v>
+        <v>7442</v>
       </c>
       <c r="C58">
         <v>150</v>
       </c>
       <c r="D58" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E58" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58">
         <v>65</v>
       </c>
       <c r="G58" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -5834,25 +6327,25 @@
       </c>
       <c r="B59" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>7431</v>
+        <v>7028</v>
       </c>
       <c r="C59">
         <v>150</v>
       </c>
       <c r="D59" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E59" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
         <v>65</v>
       </c>
       <c r="G59" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -5861,14 +6354,14 @@
       </c>
       <c r="B60" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6345</v>
+        <v>7160</v>
       </c>
       <c r="C60">
         <v>150</v>
       </c>
       <c r="D60" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="E60" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -5879,7 +6372,7 @@
       </c>
       <c r="G60" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -5888,25 +6381,25 @@
       </c>
       <c r="B61" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6077</v>
+        <v>6979</v>
       </c>
       <c r="C61">
         <v>150</v>
       </c>
       <c r="D61" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E61" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61">
         <v>65</v>
       </c>
       <c r="G61" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -5915,25 +6408,25 @@
       </c>
       <c r="B62" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2938</v>
+        <v>2387</v>
       </c>
       <c r="C62">
         <v>75</v>
       </c>
       <c r="D62" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E62" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62">
         <v>15</v>
       </c>
       <c r="G62" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
@@ -5942,25 +6435,25 @@
       </c>
       <c r="B63" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2936</v>
+        <v>2943</v>
       </c>
       <c r="C63">
         <v>75</v>
       </c>
       <c r="D63" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="E63" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
         <v>15</v>
       </c>
       <c r="G63" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
@@ -5969,14 +6462,14 @@
       </c>
       <c r="B64" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2801</v>
+        <v>2320</v>
       </c>
       <c r="C64">
         <v>75</v>
       </c>
       <c r="D64" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="E64" s="1">
         <f t="shared" ref="E64:E95" ca="1" si="4">RANDBETWEEN(0,1)</f>
@@ -5987,7 +6480,7 @@
       </c>
       <c r="G64" s="1">
         <f t="shared" ref="G64:G95" ca="1" si="5">RANDBETWEEN(10,90)</f>
-        <v>88</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
@@ -5996,14 +6489,14 @@
       </c>
       <c r="B65" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2309</v>
+        <v>2314</v>
       </c>
       <c r="C65">
         <v>75</v>
       </c>
       <c r="D65" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E65" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -6014,7 +6507,7 @@
       </c>
       <c r="G65" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>36</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
@@ -6023,25 +6516,25 @@
       </c>
       <c r="B66" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2246</v>
+        <v>2060</v>
       </c>
       <c r="C66">
         <v>75</v>
       </c>
       <c r="D66" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E66" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
         <v>15</v>
       </c>
       <c r="G66" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
@@ -6050,25 +6543,25 @@
       </c>
       <c r="B67" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4615</v>
+        <v>5152</v>
       </c>
       <c r="C67">
         <v>75</v>
       </c>
       <c r="D67" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E67" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
         <v>23</v>
       </c>
       <c r="G67" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
@@ -6077,14 +6570,14 @@
       </c>
       <c r="B68" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>5072</v>
+        <v>4583</v>
       </c>
       <c r="C68">
         <v>75</v>
       </c>
       <c r="D68" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="E68" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -6095,7 +6588,7 @@
       </c>
       <c r="G68" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>32</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
@@ -6104,14 +6597,14 @@
       </c>
       <c r="B69" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>5215</v>
+        <v>5065</v>
       </c>
       <c r="C69">
         <v>75</v>
       </c>
       <c r="D69" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="E69" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -6122,7 +6615,7 @@
       </c>
       <c r="G69" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
@@ -6131,25 +6624,25 @@
       </c>
       <c r="B70" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>5439</v>
+        <v>4301</v>
       </c>
       <c r="C70">
         <v>75</v>
       </c>
       <c r="D70" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="E70" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70">
         <v>23</v>
       </c>
       <c r="G70" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
@@ -6158,14 +6651,14 @@
       </c>
       <c r="B71" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4730</v>
+        <v>5066</v>
       </c>
       <c r="C71">
         <v>75</v>
       </c>
       <c r="D71" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E71" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -6176,7 +6669,7 @@
       </c>
       <c r="G71" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
@@ -6185,14 +6678,14 @@
       </c>
       <c r="B72" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6796</v>
+        <v>7419</v>
       </c>
       <c r="C72">
         <v>75</v>
       </c>
       <c r="D72" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E72" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -6203,7 +6696,7 @@
       </c>
       <c r="G72" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
@@ -6212,14 +6705,14 @@
       </c>
       <c r="B73" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>7085</v>
+        <v>7121</v>
       </c>
       <c r="C73">
         <v>75</v>
       </c>
       <c r="D73" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E73" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -6230,7 +6723,7 @@
       </c>
       <c r="G73" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
@@ -6239,14 +6732,14 @@
       </c>
       <c r="B74" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6800</v>
+        <v>6100</v>
       </c>
       <c r="C74">
         <v>75</v>
       </c>
       <c r="D74" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="E74" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -6257,7 +6750,7 @@
       </c>
       <c r="G74" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
@@ -6266,25 +6759,25 @@
       </c>
       <c r="B75" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>7138</v>
+        <v>6114</v>
       </c>
       <c r="C75">
         <v>75</v>
       </c>
       <c r="D75" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E75" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
         <v>65</v>
       </c>
       <c r="G75" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
@@ -6293,14 +6786,14 @@
       </c>
       <c r="B76" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6079</v>
+        <v>6887</v>
       </c>
       <c r="C76">
         <v>75</v>
       </c>
       <c r="D76" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="E76" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -6311,7 +6804,7 @@
       </c>
       <c r="G76" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
@@ -6320,25 +6813,25 @@
       </c>
       <c r="B77" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2098</v>
+        <v>2523</v>
       </c>
       <c r="C77">
         <v>150</v>
       </c>
       <c r="D77" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="E77" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77">
         <v>15</v>
       </c>
       <c r="G77" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
@@ -6347,25 +6840,25 @@
       </c>
       <c r="B78" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2620</v>
+        <v>2126</v>
       </c>
       <c r="C78">
         <v>150</v>
       </c>
       <c r="D78" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="E78" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
         <v>15</v>
       </c>
       <c r="G78" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
@@ -6374,14 +6867,14 @@
       </c>
       <c r="B79" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2480</v>
+        <v>2894</v>
       </c>
       <c r="C79">
         <v>150</v>
       </c>
       <c r="D79" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E79" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -6392,7 +6885,7 @@
       </c>
       <c r="G79" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
@@ -6401,25 +6894,25 @@
       </c>
       <c r="B80" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2943</v>
+        <v>2294</v>
       </c>
       <c r="C80">
         <v>150</v>
       </c>
       <c r="D80" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="E80" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
         <v>15</v>
       </c>
       <c r="G80" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>23</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
@@ -6428,14 +6921,14 @@
       </c>
       <c r="B81" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2750</v>
+        <v>2436</v>
       </c>
       <c r="C81">
         <v>150</v>
       </c>
       <c r="D81" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E81" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -6446,7 +6939,7 @@
       </c>
       <c r="G81" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
@@ -6455,25 +6948,25 @@
       </c>
       <c r="B82" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4814</v>
+        <v>5327</v>
       </c>
       <c r="C82">
         <v>150</v>
       </c>
       <c r="D82" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E82" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82">
         <v>23</v>
       </c>
       <c r="G82" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
@@ -6482,25 +6975,25 @@
       </c>
       <c r="B83" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4498</v>
+        <v>4001</v>
       </c>
       <c r="C83">
         <v>150</v>
       </c>
       <c r="D83" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="E83" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83">
         <v>23</v>
       </c>
       <c r="G83" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
@@ -6509,14 +7002,14 @@
       </c>
       <c r="B84" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4071</v>
+        <v>4430</v>
       </c>
       <c r="C84">
         <v>150</v>
       </c>
       <c r="D84" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="E84" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -6527,7 +7020,7 @@
       </c>
       <c r="G84" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
@@ -6536,14 +7029,14 @@
       </c>
       <c r="B85" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>5025</v>
+        <v>4944</v>
       </c>
       <c r="C85">
         <v>150</v>
       </c>
       <c r="D85" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="E85" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -6554,7 +7047,7 @@
       </c>
       <c r="G85" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
@@ -6563,25 +7056,25 @@
       </c>
       <c r="B86" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>5148</v>
+        <v>4656</v>
       </c>
       <c r="C86">
         <v>150</v>
       </c>
       <c r="D86" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E86" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86">
         <v>23</v>
       </c>
       <c r="G86" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
@@ -6590,25 +7083,25 @@
       </c>
       <c r="B87" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6723</v>
+        <v>6768</v>
       </c>
       <c r="C87">
         <v>150</v>
       </c>
       <c r="D87" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E87" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87">
         <v>65</v>
       </c>
       <c r="G87" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
@@ -6617,14 +7110,14 @@
       </c>
       <c r="B88" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6677</v>
+        <v>7202</v>
       </c>
       <c r="C88">
         <v>150</v>
       </c>
       <c r="D88" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="E88" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -6635,7 +7128,7 @@
       </c>
       <c r="G88" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
@@ -6644,25 +7137,25 @@
       </c>
       <c r="B89" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6884</v>
+        <v>7431</v>
       </c>
       <c r="C89">
         <v>150</v>
       </c>
       <c r="D89" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="E89" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
         <v>65</v>
       </c>
       <c r="G89" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
@@ -6671,14 +7164,14 @@
       </c>
       <c r="B90" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>7126</v>
+        <v>7386</v>
       </c>
       <c r="C90">
         <v>150</v>
       </c>
       <c r="D90" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E90" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -6689,7 +7182,7 @@
       </c>
       <c r="G90" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
@@ -6698,25 +7191,25 @@
       </c>
       <c r="B91" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6884</v>
+        <v>7132</v>
       </c>
       <c r="C91">
         <v>150</v>
       </c>
       <c r="D91" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="E91" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91">
         <v>65</v>
       </c>
       <c r="G91" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
@@ -6725,14 +7218,14 @@
       </c>
       <c r="B92" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2636</v>
+        <v>2327</v>
       </c>
       <c r="C92">
         <v>75</v>
       </c>
       <c r="D92" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="E92" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -6743,7 +7236,7 @@
       </c>
       <c r="G92" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>47</v>
+        <v>67</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
@@ -6752,14 +7245,14 @@
       </c>
       <c r="B93" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2777</v>
+        <v>2201</v>
       </c>
       <c r="C93">
         <v>75</v>
       </c>
       <c r="D93" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E93" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -6770,7 +7263,7 @@
       </c>
       <c r="G93" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
@@ -6779,14 +7272,14 @@
       </c>
       <c r="B94" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2778</v>
+        <v>2821</v>
       </c>
       <c r="C94">
         <v>75</v>
       </c>
       <c r="D94" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="E94" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -6797,7 +7290,7 @@
       </c>
       <c r="G94" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
@@ -6806,25 +7299,25 @@
       </c>
       <c r="B95" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2022</v>
+        <v>2321</v>
       </c>
       <c r="C95">
         <v>75</v>
       </c>
       <c r="D95" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E95" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95">
         <v>15</v>
       </c>
       <c r="G95" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>40</v>
+        <v>79</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
@@ -6833,14 +7326,14 @@
       </c>
       <c r="B96" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2174</v>
+        <v>2880</v>
       </c>
       <c r="C96">
         <v>75</v>
       </c>
       <c r="D96" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="E96" s="1">
         <f t="shared" ref="E96:E101" ca="1" si="6">RANDBETWEEN(0,1)</f>
@@ -6851,7 +7344,7 @@
       </c>
       <c r="G96" s="1">
         <f t="shared" ref="G96:G101" ca="1" si="7">RANDBETWEEN(10,90)</f>
-        <v>71</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
@@ -6860,14 +7353,14 @@
       </c>
       <c r="B97" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>5207</v>
+        <v>4144</v>
       </c>
       <c r="C97">
         <v>75</v>
       </c>
       <c r="D97" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E97" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -6878,7 +7371,7 @@
       </c>
       <c r="G97" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
@@ -6887,14 +7380,14 @@
       </c>
       <c r="B98" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>5061</v>
+        <v>4459</v>
       </c>
       <c r="C98">
         <v>75</v>
       </c>
       <c r="D98" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E98" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -6905,7 +7398,7 @@
       </c>
       <c r="G98" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
@@ -6914,7 +7407,7 @@
       </c>
       <c r="B99" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4202</v>
+        <v>5151</v>
       </c>
       <c r="C99">
         <v>75</v>
@@ -6932,7 +7425,7 @@
       </c>
       <c r="G99" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
@@ -6941,14 +7434,14 @@
       </c>
       <c r="B100" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4258</v>
+        <v>5200</v>
       </c>
       <c r="C100">
         <v>75</v>
       </c>
       <c r="D100" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E100" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -6959,7 +7452,7 @@
       </c>
       <c r="G100" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
@@ -6968,14 +7461,14 @@
       </c>
       <c r="B101" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>5302</v>
+        <v>5384</v>
       </c>
       <c r="C101">
         <v>75</v>
       </c>
       <c r="D101" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="E101" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -6986,7 +7479,7 @@
       </c>
       <c r="G101" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
@@ -6995,14 +7488,14 @@
       </c>
       <c r="B102" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6318</v>
+        <v>7418</v>
       </c>
       <c r="C102">
         <v>75</v>
       </c>
       <c r="D102" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E102" s="1">
         <f t="shared" ref="E102:E106" ca="1" si="8">RANDBETWEEN(0,1)</f>
@@ -7013,7 +7506,7 @@
       </c>
       <c r="G102" s="1">
         <f t="shared" ref="G102:G106" ca="1" si="9">RANDBETWEEN(10,90)</f>
-        <v>56</v>
+        <v>89</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
@@ -7022,14 +7515,14 @@
       </c>
       <c r="B103" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6894</v>
+        <v>6949</v>
       </c>
       <c r="C103">
         <v>75</v>
       </c>
       <c r="D103" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E103" s="1">
         <f t="shared" ca="1" si="8"/>
@@ -7040,7 +7533,7 @@
       </c>
       <c r="G103" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
@@ -7049,25 +7542,25 @@
       </c>
       <c r="B104" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6733</v>
+        <v>6273</v>
       </c>
       <c r="C104">
         <v>75</v>
       </c>
       <c r="D104" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E104" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104">
         <v>65</v>
       </c>
       <c r="G104" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
@@ -7076,7 +7569,7 @@
       </c>
       <c r="B105" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6525</v>
+        <v>7244</v>
       </c>
       <c r="C105">
         <v>75</v>
@@ -7087,14 +7580,14 @@
       </c>
       <c r="E105" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105">
         <v>65</v>
       </c>
       <c r="G105" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
@@ -7103,25 +7596,25 @@
       </c>
       <c r="B106" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>7211</v>
+        <v>6523</v>
       </c>
       <c r="C106">
         <v>75</v>
       </c>
       <c r="D106" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E106" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106">
         <v>65</v>
       </c>
       <c r="G106" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
@@ -7130,25 +7623,25 @@
       </c>
       <c r="B107" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2776</v>
+        <v>2367</v>
       </c>
       <c r="C107">
         <v>150</v>
       </c>
       <c r="D107" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="E107" s="1">
         <f t="shared" ref="E107:E121" ca="1" si="10">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107">
         <v>15</v>
       </c>
       <c r="G107" s="1">
         <f t="shared" ref="G107:G121" ca="1" si="11">RANDBETWEEN(10,90)</f>
-        <v>54</v>
+        <v>85</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
@@ -7157,14 +7650,14 @@
       </c>
       <c r="B108" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2903</v>
+        <v>2218</v>
       </c>
       <c r="C108">
         <v>150</v>
       </c>
       <c r="D108" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="E108" s="1">
         <f t="shared" ca="1" si="10"/>
@@ -7175,7 +7668,7 @@
       </c>
       <c r="G108" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
@@ -7184,7 +7677,7 @@
       </c>
       <c r="B109" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2605</v>
+        <v>2408</v>
       </c>
       <c r="C109">
         <v>150</v>
@@ -7195,14 +7688,14 @@
       </c>
       <c r="E109" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109">
         <v>15</v>
       </c>
       <c r="G109" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
@@ -7211,14 +7704,14 @@
       </c>
       <c r="B110" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2301</v>
+        <v>2510</v>
       </c>
       <c r="C110">
         <v>150</v>
       </c>
       <c r="D110" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E110" s="1">
         <f t="shared" ca="1" si="10"/>
@@ -7229,7 +7722,7 @@
       </c>
       <c r="G110" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
@@ -7238,25 +7731,25 @@
       </c>
       <c r="B111" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>2165</v>
+        <v>2996</v>
       </c>
       <c r="C111">
         <v>150</v>
       </c>
       <c r="D111" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="E111" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111">
         <v>15</v>
       </c>
       <c r="G111" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
@@ -7265,25 +7758,25 @@
       </c>
       <c r="B112" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>5246</v>
+        <v>4187</v>
       </c>
       <c r="C112">
         <v>150</v>
       </c>
       <c r="D112" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="E112" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112">
         <v>23</v>
       </c>
       <c r="G112" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>86</v>
+        <v>42</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
@@ -7292,14 +7785,14 @@
       </c>
       <c r="B113" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4669</v>
+        <v>4761</v>
       </c>
       <c r="C113">
         <v>150</v>
       </c>
       <c r="D113" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="E113" s="1">
         <f t="shared" ca="1" si="10"/>
@@ -7310,7 +7803,7 @@
       </c>
       <c r="G113" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>77</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
@@ -7319,14 +7812,14 @@
       </c>
       <c r="B114" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>5218</v>
+        <v>5335</v>
       </c>
       <c r="C114">
         <v>150</v>
       </c>
       <c r="D114" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="E114" s="1">
         <f t="shared" ca="1" si="10"/>
@@ -7337,7 +7830,7 @@
       </c>
       <c r="G114" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>29</v>
+        <v>71</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
@@ -7346,25 +7839,25 @@
       </c>
       <c r="B115" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>4394</v>
+        <v>4379</v>
       </c>
       <c r="C115">
         <v>150</v>
       </c>
       <c r="D115" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E115" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115">
         <v>23</v>
       </c>
       <c r="G115" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
@@ -7373,14 +7866,14 @@
       </c>
       <c r="B116" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>5278</v>
+        <v>5168</v>
       </c>
       <c r="C116">
         <v>150</v>
       </c>
       <c r="D116" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E116" s="1">
         <f t="shared" ca="1" si="10"/>
@@ -7391,7 +7884,7 @@
       </c>
       <c r="G116" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>49</v>
+        <v>90</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
@@ -7400,25 +7893,25 @@
       </c>
       <c r="B117" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6886</v>
+        <v>6149</v>
       </c>
       <c r="C117">
         <v>150</v>
       </c>
       <c r="D117" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="E117" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117">
         <v>65</v>
       </c>
       <c r="G117" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>14</v>
+        <v>84</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
@@ -7427,14 +7920,14 @@
       </c>
       <c r="B118" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6454</v>
+        <v>6189</v>
       </c>
       <c r="C118">
         <v>150</v>
       </c>
       <c r="D118" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E118" s="1">
         <f t="shared" ca="1" si="10"/>
@@ -7445,7 +7938,7 @@
       </c>
       <c r="G118" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
@@ -7454,14 +7947,14 @@
       </c>
       <c r="B119" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>7110</v>
+        <v>7255</v>
       </c>
       <c r="C119">
         <v>150</v>
       </c>
       <c r="D119" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E119" s="1">
         <f t="shared" ca="1" si="10"/>
@@ -7472,7 +7965,7 @@
       </c>
       <c r="G119" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>88</v>
+        <v>69</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
@@ -7481,14 +7974,14 @@
       </c>
       <c r="B120" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6936</v>
+        <v>6094</v>
       </c>
       <c r="C120">
         <v>150</v>
       </c>
       <c r="D120" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="E120" s="1">
         <f t="shared" ca="1" si="10"/>
@@ -7499,7 +7992,7 @@
       </c>
       <c r="G120" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
@@ -7508,14 +8001,14 @@
       </c>
       <c r="B121" s="1">
         <f ca="1">IF(Table13[[#This Row],[Distance to Target]]&lt;20,RANDBETWEEN(2000,3000),IF(Table13[[#This Row],[Distance to Target]]&lt;40,RANDBETWEEN(4000,5500),IF(Table13[[#This Row],[Distance to Target]]&gt;40, RANDBETWEEN(6000,7500))))</f>
-        <v>6154</v>
+        <v>7099</v>
       </c>
       <c r="C121">
         <v>150</v>
       </c>
       <c r="D121" s="1">
         <f ca="1">IF(Table13[[#This Row],[Temperature]]&lt;50,RANDBETWEEN(0,20),RANDBETWEEN(60,80))</f>
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="E121" s="1">
         <f t="shared" ca="1" si="10"/>
@@ -7526,7 +8019,7 @@
       </c>
       <c r="G121" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>14</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
